--- a/Customer/Cust 2025/Cargo SY 2025.xlsx
+++ b/Customer/Cust 2025/Cargo SY 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD898149-478E-4231-B7D5-707485FF9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190AF51-DE57-4B39-82CC-F4978C07BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>S0086042</t>
+  </si>
+  <si>
+    <t>1-58</t>
+  </si>
+  <si>
+    <t>机脚胶Rubber for sewing feet</t>
+  </si>
+  <si>
+    <t>BRANDED</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>S0086129</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>尾灯taillight</t>
+  </si>
+  <si>
+    <t>S0086413</t>
+  </si>
+  <si>
+    <t>935193652 /18969779651</t>
+  </si>
+  <si>
+    <t>气缸盖Cylinder head</t>
+  </si>
+  <si>
+    <t>退税TR</t>
   </si>
 </sst>
 </file>
@@ -183,7 +219,7 @@
     <numFmt numFmtId="168" formatCode="0.000_ "/>
     <numFmt numFmtId="169" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +289,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,36 +542,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,10 +564,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -845,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B17"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,11 +1029,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -945,10 +1045,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -965,28 +1065,28 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>1392620920</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="43">
         <v>45667</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="29">
         <v>8</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>357</v>
       </c>
       <c r="J5" s="30">
@@ -1001,29 +1101,29 @@
       <c r="M5" s="29">
         <v>26</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="49">
         <v>45670</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="49">
         <v>45699</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="29">
         <v>2</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="30">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -1036,23 +1136,23 @@
       <c r="M6" s="29">
         <v>26</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" ht="21">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="29">
         <v>4</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="30">
         <v>0.12675</v>
       </c>
@@ -1065,25 +1165,25 @@
       <c r="M7" s="29">
         <v>25</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="46" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="29">
         <v>20</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="30">
         <v>0.31099199999999999</v>
       </c>
@@ -1096,23 +1196,23 @@
       <c r="M8" s="29">
         <v>38</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" ht="21">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="29">
         <v>10</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="30">
         <v>0.13718</v>
       </c>
@@ -1125,23 +1225,23 @@
       <c r="M9" s="29">
         <v>38</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="21">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="29">
         <v>10</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="30">
         <v>0.13718</v>
       </c>
@@ -1154,23 +1254,23 @@
       <c r="M10" s="29">
         <v>38</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" ht="21">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="29">
         <v>20</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="30">
         <v>0.13718</v>
       </c>
@@ -1183,23 +1283,23 @@
       <c r="M11" s="29">
         <v>38</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" ht="21">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="29">
         <v>50</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="30">
         <v>0.68589999999999995</v>
       </c>
@@ -1212,23 +1312,23 @@
       <c r="M12" s="29">
         <v>38</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" ht="21">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="29">
         <v>10</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="30">
         <v>6.93E-2</v>
       </c>
@@ -1241,15 +1341,15 @@
       <c r="M13" s="29">
         <v>33</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1359,7 @@
       <c r="H14" s="29">
         <v>85</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="30">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -1272,15 +1372,15 @@
       <c r="M14" s="29">
         <v>24</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" ht="21">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="28" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1390,7 @@
       <c r="H15" s="29">
         <v>50</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="30">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -1303,15 +1403,15 @@
       <c r="M15" s="29">
         <v>33</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="28" t="s">
         <v>39</v>
       </c>
@@ -1321,7 +1421,7 @@
       <c r="H16" s="29">
         <v>14</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="30">
         <v>0.16819999999999999</v>
       </c>
@@ -1334,15 +1434,15 @@
       <c r="M16" s="29">
         <v>20</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="37.5">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="50"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="28" t="s">
         <v>41</v>
       </c>
@@ -1352,7 +1452,7 @@
       <c r="H17" s="29">
         <v>10</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="30">
         <v>0.35963200000000001</v>
       </c>
@@ -1365,17 +1465,17 @@
       <c r="M17" s="29">
         <v>38</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="2:16" ht="22.5">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="32" t="s">
         <v>43</v>
       </c>
@@ -1394,8 +1494,215 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
     </row>
+    <row r="19" spans="2:16" ht="42">
+      <c r="B19" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="52">
+        <v>13169011340</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="53">
+        <v>45723</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="52">
+        <v>1837</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1242</v>
+      </c>
+      <c r="J19" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="22.5">
+      <c r="B20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57">
+        <v>1242</v>
+      </c>
+      <c r="J20" s="58">
+        <v>4.5</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="2:16" ht="21">
+      <c r="B21" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="52">
+        <v>13169011340</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="53">
+        <v>45723</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="52">
+        <v>1</v>
+      </c>
+      <c r="I21" s="52">
+        <v>8</v>
+      </c>
+      <c r="J21" s="55">
+        <v>8.0369999999999997E-2</v>
+      </c>
+      <c r="K21" s="52">
+        <v>47</v>
+      </c>
+      <c r="L21" s="52">
+        <v>30</v>
+      </c>
+      <c r="M21" s="52">
+        <v>57</v>
+      </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="2:16" ht="22.5">
+      <c r="B22" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57">
+        <v>8</v>
+      </c>
+      <c r="J22" s="58">
+        <v>8.0369999999999997E-2</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="2:16" ht="21">
+      <c r="B23" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="61">
+        <v>45726</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60">
+        <v>95</v>
+      </c>
+      <c r="J23" s="64">
+        <f>K23*L23*M23/1000000</f>
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="K23" s="60">
+        <v>62</v>
+      </c>
+      <c r="L23" s="60">
+        <v>75</v>
+      </c>
+      <c r="M23" s="60">
+        <v>90</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="60"/>
+    </row>
+    <row r="24" spans="2:16" ht="22.5">
+      <c r="B24" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="65"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="65">
+        <f>SUM(I23:I23)</f>
+        <v>95</v>
+      </c>
+      <c r="J24" s="58">
+        <f>SUM(J23:J23)</f>
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="N5:N17"/>
+    <mergeCell ref="O5:O17"/>
+    <mergeCell ref="P5:P17"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:B17"/>
@@ -1404,11 +1711,6 @@
     <mergeCell ref="E5:E17"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="I5:I17"/>
-    <mergeCell ref="N5:N17"/>
-    <mergeCell ref="O5:O17"/>
-    <mergeCell ref="P5:P17"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1500,11 +1802,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>

--- a/Customer/Cust 2025/Cargo SY 2025.xlsx
+++ b/Customer/Cust 2025/Cargo SY 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190AF51-DE57-4B39-82CC-F4978C07BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CBA0E-21C5-4BCE-9B91-EED136449452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>退税TR</t>
+  </si>
+  <si>
+    <t>S0086581</t>
   </si>
 </sst>
 </file>
@@ -542,21 +545,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,70 +627,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -945,11 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,11 +1032,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1045,10 +1048,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -1065,28 +1068,28 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="57">
         <v>1392620920</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="63">
         <v>45667</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="29">
         <v>8</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="57">
         <v>357</v>
       </c>
       <c r="J5" s="30">
@@ -1101,29 +1104,29 @@
       <c r="M5" s="29">
         <v>26</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="54">
         <v>45670</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="54">
         <v>45699</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="29">
         <v>2</v>
       </c>
-      <c r="I6" s="41"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="30">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -1136,23 +1139,23 @@
       <c r="M6" s="29">
         <v>26</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:16" ht="21">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="29">
         <v>4</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="30">
         <v>0.12675</v>
       </c>
@@ -1165,25 +1168,25 @@
       <c r="M7" s="29">
         <v>25</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="29">
         <v>20</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="30">
         <v>0.31099199999999999</v>
       </c>
@@ -1196,23 +1199,23 @@
       <c r="M8" s="29">
         <v>38</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="21">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="29">
         <v>10</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="30">
         <v>0.13718</v>
       </c>
@@ -1225,23 +1228,23 @@
       <c r="M9" s="29">
         <v>38</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="21">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="29">
         <v>10</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="30">
         <v>0.13718</v>
       </c>
@@ -1254,23 +1257,23 @@
       <c r="M10" s="29">
         <v>38</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:16" ht="21">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="29">
         <v>20</v>
       </c>
-      <c r="I11" s="41"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="30">
         <v>0.13718</v>
       </c>
@@ -1283,23 +1286,23 @@
       <c r="M11" s="29">
         <v>38</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="21">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="29">
         <v>50</v>
       </c>
-      <c r="I12" s="41"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="30">
         <v>0.68589999999999995</v>
       </c>
@@ -1312,23 +1315,23 @@
       <c r="M12" s="29">
         <v>38</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:16" ht="21">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="29">
         <v>10</v>
       </c>
-      <c r="I13" s="41"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="30">
         <v>6.93E-2</v>
       </c>
@@ -1341,15 +1344,15 @@
       <c r="M13" s="29">
         <v>33</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
@@ -1359,7 +1362,7 @@
       <c r="H14" s="29">
         <v>85</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="30">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -1372,15 +1375,15 @@
       <c r="M14" s="29">
         <v>24</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:16" ht="21">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="28" t="s">
         <v>37</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="H15" s="29">
         <v>50</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="30">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -1403,15 +1406,15 @@
       <c r="M15" s="29">
         <v>33</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="28" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1424,7 @@
       <c r="H16" s="29">
         <v>14</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="30">
         <v>0.16819999999999999</v>
       </c>
@@ -1434,15 +1437,15 @@
       <c r="M16" s="29">
         <v>20</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
     </row>
     <row r="17" spans="2:16" ht="37.5">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="28" t="s">
         <v>41</v>
       </c>
@@ -1452,7 +1455,7 @@
       <c r="H17" s="29">
         <v>10</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="30">
         <v>0.35963200000000001</v>
       </c>
@@ -1465,17 +1468,17 @@
       <c r="M17" s="29">
         <v>38</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
     </row>
     <row r="18" spans="2:16" ht="22.5">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="32" t="s">
         <v>43</v>
       </c>
@@ -1495,211 +1498,269 @@
       <c r="P18" s="37"/>
     </row>
     <row r="19" spans="2:16" ht="42">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="38">
         <v>13169011340</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="39">
         <v>45723</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="38">
         <v>1837</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="38">
         <v>1242</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="41">
         <v>4.5</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52" t="s">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="22.5">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="56" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57">
+      <c r="H20" s="43"/>
+      <c r="I20" s="43">
         <v>1242</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="44">
         <v>4.5</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="2:16" ht="21">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="38">
         <v>13169011340</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="39">
         <v>45723</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="38">
         <v>1</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="38">
         <v>8</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="41">
         <v>8.0369999999999997E-2</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="38">
         <v>47</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="38">
         <v>30</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="38">
         <v>57</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="2:16" ht="22.5">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="56" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57">
+      <c r="H22" s="43"/>
+      <c r="I22" s="43">
         <v>8</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="44">
         <v>8.0369999999999997E-2</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" spans="2:16" ht="21">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="47">
         <v>45726</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46">
         <v>95</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="50">
         <f>K23*L23*M23/1000000</f>
         <v>0.41849999999999998</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="46">
         <v>62</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="46">
         <v>75</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="46">
         <v>90</v>
       </c>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="60" t="s">
+      <c r="O23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="60"/>
+      <c r="P23" s="46"/>
     </row>
     <row r="24" spans="2:16" ht="22.5">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="56" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="51">
         <f>SUM(I23:I23)</f>
         <v>95</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="44">
         <f>SUM(J23:J23)</f>
         <v>0.41849999999999998</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+    </row>
+    <row r="25" spans="2:16" ht="21">
+      <c r="B25" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="38">
+        <v>70462586961</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="39">
+        <v>45729</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38">
+        <v>467</v>
+      </c>
+      <c r="J25" s="41">
+        <v>1.296</v>
+      </c>
+      <c r="K25" s="38">
+        <v>120</v>
+      </c>
+      <c r="L25" s="38">
+        <v>100</v>
+      </c>
+      <c r="M25" s="38">
+        <v>108</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="2:16" ht="22.5">
+      <c r="B26" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43">
+        <v>467</v>
+      </c>
+      <c r="J26" s="44">
+        <v>1.296</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="N5:N17"/>
-    <mergeCell ref="O5:O17"/>
+  <mergeCells count="17">
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="P5:P17"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="B18:E18"/>
@@ -1711,6 +1772,11 @@
     <mergeCell ref="E5:E17"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="I5:I17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="N5:N17"/>
+    <mergeCell ref="O5:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1802,11 +1868,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1818,10 +1884,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
